--- a/Prac2/Times.xlsx
+++ b/Prac2/Times.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cameronclark/Documents/UCT/EEE3096S/pracs/Prac2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FAF0AD7B-7047-9F40-9CCB-47010A72735E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7084F9-EC20-7C42-84FA-72E589E1BB9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10000" windowHeight="18000" xr2:uid="{339FA320-FCC4-9944-9159-A8D83CFCD7FC}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{339FA320-FCC4-9944-9159-A8D83CFCD7FC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Cameron" sheetId="1" r:id="rId1"/>
+    <sheet name="Kian" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>Test</t>
   </si>
@@ -78,6 +79,51 @@
   </si>
   <si>
     <t>1 Threads</t>
+  </si>
+  <si>
+    <t>C Optimisation Flags (unthreaded)</t>
+  </si>
+  <si>
+    <t>-O0</t>
+  </si>
+  <si>
+    <t>-O1</t>
+  </si>
+  <si>
+    <t>-O2</t>
+  </si>
+  <si>
+    <t>-O3</t>
+  </si>
+  <si>
+    <t>-Ofast</t>
+  </si>
+  <si>
+    <t>-Os</t>
+  </si>
+  <si>
+    <t>-Og</t>
+  </si>
+  <si>
+    <t>C unrolled loops, unthreaded</t>
+  </si>
+  <si>
+    <t>Fastest in theory</t>
+  </si>
+  <si>
+    <t>C bit widths, unthreaded</t>
+  </si>
+  <si>
+    <t>fp16</t>
+  </si>
+  <si>
+    <t>float (size 4)</t>
+  </si>
+  <si>
+    <t>double (size 8)</t>
+  </si>
+  <si>
+    <t>8 Threads, float, -Os, -funrolled-loops</t>
   </si>
 </sst>
 </file>
@@ -113,14 +159,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,37 +485,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{268D49FA-3D22-BD48-9F64-AB5F6F41773D}">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:X8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="237" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="237" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>6</v>
       </c>
       <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -493,8 +567,53 @@
       <c r="I2" t="s">
         <v>11</v>
       </c>
+      <c r="J2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="U2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -516,8 +635,59 @@
       <c r="G3">
         <v>8.36</v>
       </c>
+      <c r="H3">
+        <v>1.46</v>
+      </c>
+      <c r="I3">
+        <v>3.4</v>
+      </c>
+      <c r="J3">
+        <v>30.4</v>
+      </c>
+      <c r="K3">
+        <v>14.1</v>
+      </c>
+      <c r="L3">
+        <v>28.2</v>
+      </c>
+      <c r="M3">
+        <v>28.7</v>
+      </c>
+      <c r="N3">
+        <v>7.1</v>
+      </c>
+      <c r="O3">
+        <v>21</v>
+      </c>
+      <c r="P3">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="Q3">
+        <v>43.9</v>
+      </c>
+      <c r="R3">
+        <v>7.31</v>
+      </c>
+      <c r="S3">
+        <v>24.6</v>
+      </c>
+      <c r="T3">
+        <v>6.01</v>
+      </c>
+      <c r="U3">
+        <v>31.9</v>
+      </c>
+      <c r="V3">
+        <v>6.69</v>
+      </c>
+      <c r="W3">
+        <v>110</v>
+      </c>
+      <c r="X3">
+        <v>14.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -539,8 +709,59 @@
       <c r="G4">
         <v>11.3</v>
       </c>
+      <c r="H4">
+        <v>8.9</v>
+      </c>
+      <c r="I4">
+        <v>4.88</v>
+      </c>
+      <c r="J4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="K4">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L4">
+        <v>20.9</v>
+      </c>
+      <c r="M4">
+        <v>26.9</v>
+      </c>
+      <c r="N4">
+        <v>12.3</v>
+      </c>
+      <c r="O4">
+        <v>5.78</v>
+      </c>
+      <c r="P4">
+        <v>8.92</v>
+      </c>
+      <c r="Q4">
+        <v>6.18</v>
+      </c>
+      <c r="R4">
+        <v>6.78</v>
+      </c>
+      <c r="S4">
+        <v>5.08</v>
+      </c>
+      <c r="T4">
+        <v>5.67</v>
+      </c>
+      <c r="U4">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="V4">
+        <v>31.1</v>
+      </c>
+      <c r="W4">
+        <v>101</v>
+      </c>
+      <c r="X4">
+        <v>1.68</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -562,8 +783,59 @@
       <c r="G5">
         <v>10.9</v>
       </c>
+      <c r="H5">
+        <v>26</v>
+      </c>
+      <c r="I5">
+        <v>24.4</v>
+      </c>
+      <c r="J5">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="K5">
+        <v>8.09</v>
+      </c>
+      <c r="L5">
+        <v>36.6</v>
+      </c>
+      <c r="M5">
+        <v>6.02</v>
+      </c>
+      <c r="N5">
+        <v>19</v>
+      </c>
+      <c r="O5">
+        <v>5.03</v>
+      </c>
+      <c r="P5">
+        <v>21.8</v>
+      </c>
+      <c r="Q5">
+        <v>12.1</v>
+      </c>
+      <c r="R5">
+        <v>15.1</v>
+      </c>
+      <c r="S5">
+        <v>42.7</v>
+      </c>
+      <c r="T5">
+        <v>11.8</v>
+      </c>
+      <c r="U5">
+        <v>34.1</v>
+      </c>
+      <c r="V5">
+        <v>10.9</v>
+      </c>
+      <c r="W5">
+        <v>26.2</v>
+      </c>
+      <c r="X5">
+        <v>14.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -585,8 +857,59 @@
       <c r="G6">
         <v>11.3</v>
       </c>
+      <c r="H6">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I6">
+        <v>17.8</v>
+      </c>
+      <c r="J6">
+        <v>12.1</v>
+      </c>
+      <c r="K6">
+        <v>6.19</v>
+      </c>
+      <c r="L6">
+        <v>5.31</v>
+      </c>
+      <c r="M6">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="N6">
+        <v>5.87</v>
+      </c>
+      <c r="O6">
+        <v>24.2</v>
+      </c>
+      <c r="P6">
+        <v>6.22</v>
+      </c>
+      <c r="Q6">
+        <v>31.7</v>
+      </c>
+      <c r="R6">
+        <v>57.9</v>
+      </c>
+      <c r="S6">
+        <v>6.06</v>
+      </c>
+      <c r="T6">
+        <v>21.1</v>
+      </c>
+      <c r="U6">
+        <v>69</v>
+      </c>
+      <c r="V6">
+        <v>35</v>
+      </c>
+      <c r="W6">
+        <v>98.8</v>
+      </c>
+      <c r="X6">
+        <v>1.9</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -608,8 +931,59 @@
       <c r="G7">
         <v>1.65</v>
       </c>
+      <c r="H7">
+        <v>24.8</v>
+      </c>
+      <c r="I7">
+        <v>29.5</v>
+      </c>
+      <c r="J7">
+        <v>35.1</v>
+      </c>
+      <c r="K7">
+        <v>48.4</v>
+      </c>
+      <c r="L7">
+        <v>7.77</v>
+      </c>
+      <c r="M7">
+        <v>53.4</v>
+      </c>
+      <c r="N7">
+        <v>29.1</v>
+      </c>
+      <c r="O7">
+        <v>5.73</v>
+      </c>
+      <c r="P7">
+        <v>25.3</v>
+      </c>
+      <c r="Q7">
+        <v>13.4</v>
+      </c>
+      <c r="R7">
+        <v>34</v>
+      </c>
+      <c r="S7">
+        <v>6.21</v>
+      </c>
+      <c r="T7">
+        <v>5.47</v>
+      </c>
+      <c r="U7">
+        <v>12.1</v>
+      </c>
+      <c r="V7">
+        <v>7.87</v>
+      </c>
+      <c r="W7">
+        <v>93.8</v>
+      </c>
+      <c r="X7">
+        <v>21.7</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -637,19 +1011,94 @@
         <f>AVERAGE(G3:G7)</f>
         <v>8.702</v>
       </c>
-      <c r="H8" t="e">
+      <c r="H8">
         <f>AVERAGE(H3:H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="I8">
         <f>AVERAGE(I3:I7)</f>
-        <v>#DIV/0!</v>
+        <v>15.996</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ref="J8:P8" si="0">AVERAGE(J3:J7)</f>
+        <v>24.15</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>22.015999999999998</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>19.755999999999997</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>24.945999999999998</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>14.674000000000001</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>12.348000000000003</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>19.007999999999999</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8" si="1">AVERAGE(Q3:Q7)</f>
+        <v>21.456</v>
+      </c>
+      <c r="R8">
+        <f t="shared" ref="R8" si="2">AVERAGE(R3:R7)</f>
+        <v>24.218</v>
+      </c>
+      <c r="S8">
+        <f>AVERAGE(S3:S7)</f>
+        <v>16.93</v>
+      </c>
+      <c r="T8">
+        <f>AVERAGE(T3:T7)</f>
+        <v>10.01</v>
+      </c>
+      <c r="U8">
+        <f t="shared" ref="U8:W8" si="3">AVERAGE(U3:U7)</f>
+        <v>37.26</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="3"/>
+        <v>18.312000000000001</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="3"/>
+        <v>85.960000000000008</v>
+      </c>
+      <c r="X8">
+        <f>AVERAGE(X3:X7)</f>
+        <v>10.835999999999999</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
+    <mergeCell ref="U1:W1"/>
     <mergeCell ref="D1:I1"/>
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="Q1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B153F33E-52E4-8C4B-B3B4-5FBC7618D95D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>